--- a/data/Data Dictionary.xlsx
+++ b/data/Data Dictionary.xlsx
@@ -5,22 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxwell\Documents\Python\points-of-dispense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\norac\Desktop\points-of-dispense\points-of-dispense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A950476-1A96-4038-A18F-396C35841721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B54017D9-4788-4EE7-AB36-EEB5573BF00B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>Data source</t>
   </si>
@@ -80,13 +90,109 @@
   </si>
   <si>
     <t>Travel distance in kilometers between block group and POD</t>
+  </si>
+  <si>
+    <t>BG_master</t>
+  </si>
+  <si>
+    <t>bg_id</t>
+  </si>
+  <si>
+    <t>Block group Id</t>
+  </si>
+  <si>
+    <t>census_geo_id</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>1500000US420031406003</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau code of block group</t>
+  </si>
+  <si>
+    <t>Statefp</t>
+  </si>
+  <si>
+    <t>State FIPS code (PA is 42)</t>
+  </si>
+  <si>
+    <t>Countyfp</t>
+  </si>
+  <si>
+    <t>Allegheny County FIPS code (3)</t>
+  </si>
+  <si>
+    <t>tractce</t>
+  </si>
+  <si>
+    <t>Census tract number</t>
+  </si>
+  <si>
+    <t>Blkgrpce</t>
+  </si>
+  <si>
+    <t>Census block group number (1-4)</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>Latitude of block group centroid</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Longitude of block group centroid</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Population in block group</t>
+  </si>
+  <si>
+    <t>Num_hhs</t>
+  </si>
+  <si>
+    <t>Number of households in block group</t>
+  </si>
+  <si>
+    <t>hh_no_car</t>
+  </si>
+  <si>
+    <t>Number of households without a car</t>
+  </si>
+  <si>
+    <t>hh_car</t>
+  </si>
+  <si>
+    <t>Number of households with a car</t>
+  </si>
+  <si>
+    <t>flood</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>0 if unaffected by flood, 1 if affected</t>
+  </si>
+  <si>
+    <t>anthrax</t>
+  </si>
+  <si>
+    <t>proportion of persons or households affected in anthrax scenario (0-1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -103,11 +209,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,11 +245,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,18 +471,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" customWidth="1"/>
     <col min="5" max="5" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -398,7 +518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -415,7 +535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -432,7 +552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -449,7 +569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -466,7 +586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -481,6 +601,244 @@
       </c>
       <c r="E7" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4">
+        <v>140800</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4">
+        <v>40.430965999999998</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-79.902981999999994</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2510</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4">
+        <v>614</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4">
+        <v>46</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4">
+        <v>568</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
